--- a/artfynd/Karlstjärnberget artfynd.xlsx
+++ b/artfynd/Karlstjärnberget artfynd.xlsx
@@ -921,45 +921,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1895122</v>
+        <v>923941</v>
       </c>
       <c r="B4" t="n">
-        <v>79987</v>
+        <v>90283</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>687134</v>
+        <v>687291</v>
       </c>
       <c r="R4" t="n">
-        <v>7090019</v>
+        <v>7089967</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,12 +986,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1002,61 +1002,66 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>923941</v>
+        <v>1895122</v>
       </c>
       <c r="B5" t="n">
-        <v>90283</v>
+        <v>79987</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1962</v>
+        <v>6456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>687291</v>
+        <v>687134</v>
       </c>
       <c r="R5" t="n">
-        <v>7089967</v>
+        <v>7090019</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1083,12 +1088,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1099,21 +1104,16 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1416,45 +1416,45 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87852</v>
+        <v>153095</v>
       </c>
       <c r="B9" t="n">
-        <v>91506</v>
+        <v>79012</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>686724</v>
+        <v>687036</v>
       </c>
       <c r="R9" t="n">
-        <v>7090366</v>
+        <v>7089938</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1497,66 +1497,61 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>153095</v>
+        <v>87852</v>
       </c>
       <c r="B10" t="n">
-        <v>79012</v>
+        <v>91506</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>687036</v>
+        <v>686724</v>
       </c>
       <c r="R10" t="n">
-        <v>7089938</v>
+        <v>7090366</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1583,12 +1578,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1599,16 +1594,21 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1977924</v>
+        <v>1999660</v>
       </c>
       <c r="B15" t="n">
-        <v>78738</v>
+        <v>80083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2068,21 +2068,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>687319</v>
+        <v>687223</v>
       </c>
       <c r="R15" t="n">
-        <v>7090008</v>
+        <v>7090364</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2122,12 +2122,17 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2012-10-14</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Även korallblylav</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2139,30 +2144,30 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>kolad stubbe</t>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1999660</v>
+        <v>1977924</v>
       </c>
       <c r="B16" t="n">
-        <v>80083</v>
+        <v>78738</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2170,21 +2175,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2194,10 +2199,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>687223</v>
+        <v>687319</v>
       </c>
       <c r="R16" t="n">
-        <v>7090364</v>
+        <v>7090008</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2224,17 +2229,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Även korallblylav</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2246,65 +2246,65 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Granskog</t>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>kolad stubbe</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1084410</v>
+        <v>132839</v>
       </c>
       <c r="B17" t="n">
-        <v>92045</v>
+        <v>79956</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2014</v>
+        <v>392</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) Pers.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>687215</v>
+        <v>686990</v>
       </c>
       <c r="R17" t="n">
-        <v>7089964</v>
+        <v>7089907</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2347,26 +2347,31 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>153094</v>
+        <v>1084410</v>
       </c>
       <c r="B18" t="n">
-        <v>79012</v>
+        <v>92045</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2374,21 +2379,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>2014</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Scop.) Pers.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2398,10 +2403,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>687038</v>
+        <v>687215</v>
       </c>
       <c r="R18" t="n">
-        <v>7089912</v>
+        <v>7089964</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2460,45 +2465,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>132839</v>
+        <v>153094</v>
       </c>
       <c r="B19" t="n">
-        <v>79956</v>
+        <v>79012</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>392</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>686990</v>
+        <v>687038</v>
       </c>
       <c r="R19" t="n">
-        <v>7089907</v>
+        <v>7089912</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2525,12 +2530,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2541,21 +2546,16 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2659,45 +2659,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1999664</v>
+        <v>1594916</v>
       </c>
       <c r="B21" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>686978</v>
+        <v>687121</v>
       </c>
       <c r="R21" t="n">
-        <v>7090023</v>
+        <v>7090001</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2724,12 +2724,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2740,66 +2740,61 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1594916</v>
+        <v>1999664</v>
       </c>
       <c r="B22" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>687121</v>
+        <v>686978</v>
       </c>
       <c r="R22" t="n">
-        <v>7090001</v>
+        <v>7090023</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2826,12 +2821,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2842,16 +2837,21 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -2955,45 +2955,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>709586</v>
+        <v>17225106</v>
       </c>
       <c r="B24" t="n">
-        <v>92727</v>
+        <v>95702</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2079</v>
+        <v>1079</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>687154</v>
+        <v>686925</v>
       </c>
       <c r="R24" t="n">
-        <v>7089910</v>
+        <v>7090072</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3036,26 +3036,48 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>1 substratenheter # asp # Populus tremula</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>589105</v>
+        <v>709586</v>
       </c>
       <c r="B25" t="n">
-        <v>92551</v>
+        <v>92727</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,21 +3085,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3087,10 +3109,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>687146</v>
+        <v>687154</v>
       </c>
       <c r="R25" t="n">
-        <v>7089783</v>
+        <v>7089910</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3149,45 +3171,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17225106</v>
+        <v>589105</v>
       </c>
       <c r="B26" t="n">
-        <v>95702</v>
+        <v>92551</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1079</v>
+        <v>2059</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>686925</v>
+        <v>687146</v>
       </c>
       <c r="R26" t="n">
-        <v>7090072</v>
+        <v>7089783</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3214,12 +3236,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3230,41 +3252,19 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>1 substratenheter # asp # Populus tremula</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Elin Götmark</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4049,10 +4049,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1855466</v>
+        <v>17225102</v>
       </c>
       <c r="B35" t="n">
-        <v>78980</v>
+        <v>79949</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4060,34 +4060,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>388</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>687192</v>
+        <v>686964</v>
       </c>
       <c r="R35" t="n">
-        <v>7089873</v>
+        <v>7089898</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4114,12 +4114,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4130,26 +4130,48 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>1 substratenheter # asp # Populus tremula</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
-        </is>
-      </c>
-      <c r="AY35" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17225102</v>
+        <v>1855466</v>
       </c>
       <c r="B36" t="n">
-        <v>79949</v>
+        <v>78980</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4157,34 +4179,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>388</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>686964</v>
+        <v>687192</v>
       </c>
       <c r="R36" t="n">
-        <v>7089898</v>
+        <v>7089873</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4211,12 +4233,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4227,41 +4249,19 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AN36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>1 substratenheter # asp # Populus tremula</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Elin Götmark</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4367,10 +4367,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14917244</v>
+        <v>17225100</v>
       </c>
       <c r="B38" t="n">
-        <v>5492</v>
+        <v>80083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4378,42 +4378,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>101410</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>687346</v>
+        <v>687026</v>
       </c>
       <c r="R38" t="n">
-        <v>7089996</v>
+        <v>7090021</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4437,22 +4432,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4463,26 +4448,48 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AN38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>3 substratenheter # asp # Populus tremula</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
-        </is>
-      </c>
-      <c r="AY38" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17225100</v>
+        <v>14917244</v>
       </c>
       <c r="B39" t="n">
-        <v>80083</v>
+        <v>5492</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4490,37 +4497,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>101410</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>687026</v>
+        <v>687346</v>
       </c>
       <c r="R39" t="n">
-        <v>7090021</v>
+        <v>7089996</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4544,12 +4556,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-18</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-18</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4560,41 +4582,19 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AN39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>3 substratenheter # asp # Populus tremula</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY39" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Andreas Garpebring</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4797,50 +4797,45 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14917245</v>
+        <v>1895121</v>
       </c>
       <c r="B42" t="n">
-        <v>5492</v>
+        <v>79987</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>101410</v>
+        <v>6456</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>687349</v>
+        <v>687291</v>
       </c>
       <c r="R42" t="n">
-        <v>7090001</v>
+        <v>7089967</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4867,22 +4862,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4897,57 +4882,62 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1895121</v>
+        <v>14917245</v>
       </c>
       <c r="B43" t="n">
-        <v>79987</v>
+        <v>5492</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6456</v>
+        <v>101410</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>687291</v>
+        <v>687349</v>
       </c>
       <c r="R43" t="n">
-        <v>7089967</v>
+        <v>7090001</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4974,12 +4964,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2011-09-18</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2011-09-18</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4994,12 +4994,12 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>

--- a/artfynd/Karlstjärnberget artfynd.xlsx
+++ b/artfynd/Karlstjärnberget artfynd.xlsx
@@ -921,45 +921,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>923941</v>
+        <v>1895122</v>
       </c>
       <c r="B4" t="n">
-        <v>90283</v>
+        <v>79987</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>687291</v>
+        <v>687134</v>
       </c>
       <c r="R4" t="n">
-        <v>7089967</v>
+        <v>7090019</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,12 +986,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1002,66 +1002,61 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1895122</v>
+        <v>923941</v>
       </c>
       <c r="B5" t="n">
-        <v>79987</v>
+        <v>90283</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>1962</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>687134</v>
+        <v>687291</v>
       </c>
       <c r="R5" t="n">
-        <v>7090019</v>
+        <v>7089967</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,12 +1083,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1104,16 +1099,21 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1416,45 +1416,45 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>153095</v>
+        <v>87852</v>
       </c>
       <c r="B9" t="n">
-        <v>79012</v>
+        <v>91506</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>687036</v>
+        <v>686724</v>
       </c>
       <c r="R9" t="n">
-        <v>7089938</v>
+        <v>7090366</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1497,61 +1497,66 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87852</v>
+        <v>153095</v>
       </c>
       <c r="B10" t="n">
-        <v>91506</v>
+        <v>79012</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>686724</v>
+        <v>687036</v>
       </c>
       <c r="R10" t="n">
-        <v>7090366</v>
+        <v>7089938</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1578,12 +1583,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1594,21 +1599,16 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -2266,45 +2266,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>132839</v>
+        <v>1084410</v>
       </c>
       <c r="B17" t="n">
-        <v>79956</v>
+        <v>92045</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>392</v>
+        <v>2014</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Scop.) Pers.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>686990</v>
+        <v>687215</v>
       </c>
       <c r="R17" t="n">
-        <v>7089907</v>
+        <v>7089964</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2347,66 +2347,61 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1084410</v>
+        <v>132839</v>
       </c>
       <c r="B18" t="n">
-        <v>92045</v>
+        <v>79956</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2014</v>
+        <v>392</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) Pers.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>687215</v>
+        <v>686990</v>
       </c>
       <c r="R18" t="n">
-        <v>7089964</v>
+        <v>7089907</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2433,12 +2428,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2449,16 +2444,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2659,45 +2659,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1594916</v>
+        <v>1999664</v>
       </c>
       <c r="B21" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>687121</v>
+        <v>686978</v>
       </c>
       <c r="R21" t="n">
-        <v>7090001</v>
+        <v>7090023</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2724,12 +2724,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2740,61 +2740,66 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1999664</v>
+        <v>1594916</v>
       </c>
       <c r="B22" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>686978</v>
+        <v>687121</v>
       </c>
       <c r="R22" t="n">
-        <v>7090023</v>
+        <v>7090001</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2821,12 +2826,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2837,21 +2842,16 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -2955,45 +2955,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17225106</v>
+        <v>589105</v>
       </c>
       <c r="B24" t="n">
-        <v>95702</v>
+        <v>92551</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1079</v>
+        <v>2059</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>686925</v>
+        <v>687146</v>
       </c>
       <c r="R24" t="n">
-        <v>7090072</v>
+        <v>7089783</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3036,41 +3036,19 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AN24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>1 substratenheter # asp # Populus tremula</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Elin Götmark</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3171,45 +3149,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>589105</v>
+        <v>17225106</v>
       </c>
       <c r="B26" t="n">
-        <v>92551</v>
+        <v>95702</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2059</v>
+        <v>1079</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>687146</v>
+        <v>686925</v>
       </c>
       <c r="R26" t="n">
-        <v>7089783</v>
+        <v>7090072</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3236,12 +3214,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3252,19 +3230,41 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>1 substratenheter # asp # Populus tremula</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3753,10 +3753,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1977919</v>
+        <v>709587</v>
       </c>
       <c r="B32" t="n">
-        <v>78738</v>
+        <v>92727</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3764,21 +3764,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6446</v>
+        <v>2079</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3788,10 +3788,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>687117</v>
+        <v>687377</v>
       </c>
       <c r="R32" t="n">
-        <v>7090012</v>
+        <v>7089978</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1999663</v>
+        <v>1977919</v>
       </c>
       <c r="B33" t="n">
-        <v>80083</v>
+        <v>78738</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3861,34 +3861,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>686929</v>
+        <v>687117</v>
       </c>
       <c r="R33" t="n">
-        <v>7089965</v>
+        <v>7090012</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3915,12 +3915,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3931,31 +3931,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>709587</v>
+        <v>1999663</v>
       </c>
       <c r="B34" t="n">
-        <v>92727</v>
+        <v>80083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3963,34 +3958,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2079</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>687377</v>
+        <v>686929</v>
       </c>
       <c r="R34" t="n">
-        <v>7089978</v>
+        <v>7089965</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4017,12 +4012,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4033,26 +4028,31 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17225102</v>
+        <v>1855466</v>
       </c>
       <c r="B35" t="n">
-        <v>79949</v>
+        <v>78980</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4060,34 +4060,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>388</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Karlstjärnberget, Ång</t>
+          <t>Karltjärnsberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>686964</v>
+        <v>687192</v>
       </c>
       <c r="R35" t="n">
-        <v>7089898</v>
+        <v>7089873</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4114,12 +4114,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2012-10-14</t>
+          <t>2011-09-17</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4130,48 +4130,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AN35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>1 substratenheter # asp # Populus tremula</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY35" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Elin Götmark</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1855466</v>
+        <v>17225102</v>
       </c>
       <c r="B36" t="n">
-        <v>78980</v>
+        <v>79949</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4179,34 +4157,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>388</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Karltjärnsberget, Ång</t>
+          <t>Karlstjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>687192</v>
+        <v>686964</v>
       </c>
       <c r="R36" t="n">
-        <v>7089873</v>
+        <v>7089898</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4233,12 +4211,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2012-10-14</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4249,19 +4227,41 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AN36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>1 substratenheter # asp # Populus tremula</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elin Götmark</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
